--- a/EHS2019/EHS/ExcelGenerator/Template/eHSVF003-VaccinationFileTemplate-PV.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/eHSVF003-VaccinationFileTemplate-PV.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\EHS2019\EHS\ExcelGenerator\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="11505"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Temp account no.</t>
   </si>
@@ -274,12 +279,15 @@
   </si>
   <si>
     <t>To be injected (Y/N)</t>
+  </si>
+  <si>
+    <t>Service receive date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\ mmm\ yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\ mmm\ yyyy\ hh:mm"/>
@@ -1958,6 +1966,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2005,7 +2016,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2040,7 +2051,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2249,7 +2260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2348,116 +2359,124 @@
       <c r="C18" s="36"/>
     </row>
     <row r="19" spans="1:3" s="25" customFormat="1">
-      <c r="A19" s="25" t="s">
-        <v>50</v>
-      </c>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
     </row>
     <row r="20" spans="1:3" s="25" customFormat="1">
-      <c r="A20" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:3" s="25" customFormat="1">
+      <c r="A21" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+    </row>
+    <row r="22" spans="1:3" s="25" customFormat="1">
+      <c r="A22" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="37"/>
-    </row>
-    <row r="22" spans="1:3" s="16" customFormat="1">
-      <c r="A22" s="17" t="s">
+      <c r="B23" s="37"/>
+    </row>
+    <row r="24" spans="1:3" s="16" customFormat="1">
+      <c r="A24" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="33"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="37"/>
-    </row>
-    <row r="24" spans="1:3" s="17" customFormat="1">
       <c r="B24" s="37"/>
       <c r="C24" s="33"/>
     </row>
-    <row r="25" spans="1:3" s="17" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A25" s="24" t="s">
-        <v>67</v>
+    <row r="25" spans="1:3">
+      <c r="A25" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="B25" s="37"/>
-      <c r="C25" s="33"/>
-    </row>
-    <row r="26" spans="1:3" s="17" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A26" s="24" t="s">
-        <v>68</v>
-      </c>
+    </row>
+    <row r="26" spans="1:3" s="17" customFormat="1">
       <c r="B26" s="37"/>
       <c r="C26" s="33"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" s="17" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A27" s="24" t="s">
+        <v>67</v>
+      </c>
       <c r="B27" s="37"/>
-    </row>
-    <row r="28" spans="1:3" s="17" customFormat="1">
-      <c r="A28" s="22" t="s">
+      <c r="C27" s="33"/>
+    </row>
+    <row r="28" spans="1:3" s="17" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A28" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="33"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="37"/>
+    </row>
+    <row r="30" spans="1:3" s="17" customFormat="1">
+      <c r="A30" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="33"/>
-    </row>
-    <row r="29" spans="1:3" s="17" customFormat="1">
-      <c r="A29" s="23" t="s">
+      <c r="B30" s="38"/>
+      <c r="C30" s="33"/>
+    </row>
+    <row r="31" spans="1:3" s="17" customFormat="1">
+      <c r="A31" s="23" t="s">
         <v>70</v>
-      </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="33"/>
-    </row>
-    <row r="30" spans="1:3" s="17" customFormat="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="33"/>
-    </row>
-    <row r="31" spans="1:3" s="25" customFormat="1">
-      <c r="A31" s="22" t="s">
-        <v>71</v>
       </c>
       <c r="B31" s="38"/>
       <c r="C31" s="33"/>
     </row>
-    <row r="32" spans="1:3" s="25" customFormat="1" ht="30">
-      <c r="A32" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="38"/>
+    <row r="32" spans="1:3" s="17" customFormat="1">
+      <c r="A32" s="22"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="33"/>
     </row>
     <row r="33" spans="1:3" s="25" customFormat="1">
       <c r="A33" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B33" s="38"/>
       <c r="C33" s="33"/>
     </row>
-    <row r="34" spans="1:3" s="25" customFormat="1">
-      <c r="A34" s="23" t="s">
-        <v>74</v>
+    <row r="34" spans="1:3" s="25" customFormat="1" ht="30">
+      <c r="A34" s="53" t="s">
+        <v>72</v>
       </c>
       <c r="B34" s="38"/>
       <c r="C34" s="33"/>
     </row>
     <row r="35" spans="1:3" s="25" customFormat="1">
-      <c r="A35" s="23"/>
+      <c r="A35" s="22" t="s">
+        <v>73</v>
+      </c>
       <c r="B35" s="38"/>
       <c r="C35" s="33"/>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:3" s="25" customFormat="1">
+      <c r="A36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="33"/>
+    </row>
+    <row r="37" spans="1:3" s="25" customFormat="1">
+      <c r="A37" s="23"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="33"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="40"/>
+      <c r="B38" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2472,7 +2491,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF197"/>
+  <dimension ref="A1:AG197"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:I1"/>
@@ -2509,11 +2528,12 @@
     <col min="28" max="28" width="23.28515625" customWidth="1"/>
     <col min="29" max="29" width="4.7109375" style="57" customWidth="1"/>
     <col min="30" max="30" width="16.7109375" customWidth="1"/>
-    <col min="31" max="31" width="20.5703125" customWidth="1"/>
-    <col min="32" max="32" width="18.7109375" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" style="21" customWidth="1"/>
+    <col min="32" max="32" width="20.5703125" customWidth="1"/>
+    <col min="33" max="33" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="4" customFormat="1" ht="31.5" customHeight="1">
+    <row r="1" spans="1:33" s="4" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="68" t="s">
         <v>83</v>
       </c>
@@ -2555,9 +2575,10 @@
         <v>80</v>
       </c>
       <c r="AE1" s="66"/>
-      <c r="AF1" s="67"/>
-    </row>
-    <row r="2" spans="1:32" s="4" customFormat="1" ht="31.5" customHeight="1">
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="67"/>
+    </row>
+    <row r="2" spans="1:33" s="4" customFormat="1" ht="31.5" customHeight="1">
       <c r="A2" s="78"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
@@ -2598,8 +2619,9 @@
       <c r="AD2" s="56"/>
       <c r="AE2" s="56"/>
       <c r="AF2" s="56"/>
-    </row>
-    <row r="3" spans="1:32" s="7" customFormat="1" ht="58.5" customHeight="1">
+      <c r="AG2" s="56"/>
+    </row>
+    <row r="3" spans="1:33" s="7" customFormat="1" ht="58.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -2681,13 +2703,16 @@
         <v>76</v>
       </c>
       <c r="AE3" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF3" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="AF3" s="59" t="s">
+      <c r="AG3" s="59" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="18" customFormat="1" ht="15.75">
+    <row r="4" spans="1:33" s="18" customFormat="1" ht="15.75">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -2718,10 +2743,11 @@
       <c r="AB4" s="29"/>
       <c r="AC4" s="44"/>
       <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
+      <c r="AE4" s="21"/>
       <c r="AF4" s="29"/>
-    </row>
-    <row r="5" spans="1:32" s="18" customFormat="1" ht="15.75">
+      <c r="AG4" s="29"/>
+    </row>
+    <row r="5" spans="1:33" s="18" customFormat="1" ht="15.75">
       <c r="D5" s="19"/>
       <c r="G5" s="47"/>
       <c r="H5" s="62"/>
@@ -2735,8 +2761,9 @@
       <c r="Y5" s="49"/>
       <c r="AA5" s="45"/>
       <c r="AC5" s="45"/>
-    </row>
-    <row r="6" spans="1:32" s="18" customFormat="1" ht="15.75">
+      <c r="AE5" s="21"/>
+    </row>
+    <row r="6" spans="1:33" s="18" customFormat="1" ht="15.75">
       <c r="D6" s="19"/>
       <c r="G6" s="47"/>
       <c r="H6" s="62"/>
@@ -2750,8 +2777,9 @@
       <c r="Y6" s="49"/>
       <c r="AA6" s="45"/>
       <c r="AC6" s="45"/>
-    </row>
-    <row r="7" spans="1:32" s="18" customFormat="1" ht="15.75">
+      <c r="AE6" s="21"/>
+    </row>
+    <row r="7" spans="1:33" s="18" customFormat="1" ht="15.75">
       <c r="D7" s="19"/>
       <c r="G7" s="47"/>
       <c r="H7" s="62"/>
@@ -2764,8 +2792,9 @@
       <c r="Y7" s="49"/>
       <c r="AA7" s="45"/>
       <c r="AC7" s="45"/>
-    </row>
-    <row r="8" spans="1:32" s="18" customFormat="1" ht="15.75">
+      <c r="AE7" s="21"/>
+    </row>
+    <row r="8" spans="1:33" s="18" customFormat="1" ht="15.75">
       <c r="D8" s="19"/>
       <c r="G8" s="47"/>
       <c r="H8" s="62"/>
@@ -2778,8 +2807,9 @@
       <c r="Y8" s="49"/>
       <c r="AA8" s="45"/>
       <c r="AC8" s="45"/>
-    </row>
-    <row r="9" spans="1:32" s="18" customFormat="1" ht="15.75">
+      <c r="AE8" s="21"/>
+    </row>
+    <row r="9" spans="1:33" s="18" customFormat="1" ht="15.75">
       <c r="D9" s="19"/>
       <c r="G9" s="47"/>
       <c r="H9" s="62"/>
@@ -2792,8 +2822,9 @@
       <c r="Y9" s="47"/>
       <c r="AA9" s="45"/>
       <c r="AC9" s="45"/>
-    </row>
-    <row r="10" spans="1:32" s="18" customFormat="1" ht="15.75">
+      <c r="AE9" s="21"/>
+    </row>
+    <row r="10" spans="1:33" s="18" customFormat="1" ht="15.75">
       <c r="D10" s="19"/>
       <c r="G10" s="47"/>
       <c r="H10" s="62"/>
@@ -2806,8 +2837,9 @@
       <c r="Y10" s="47"/>
       <c r="AA10" s="45"/>
       <c r="AC10" s="45"/>
-    </row>
-    <row r="11" spans="1:32" s="18" customFormat="1" ht="15.75">
+      <c r="AE10" s="21"/>
+    </row>
+    <row r="11" spans="1:33" s="18" customFormat="1" ht="15.75">
       <c r="D11" s="19"/>
       <c r="G11" s="47"/>
       <c r="H11" s="62"/>
@@ -2821,8 +2853,9 @@
       <c r="Y11" s="47"/>
       <c r="AA11" s="45"/>
       <c r="AC11" s="45"/>
-    </row>
-    <row r="12" spans="1:32" s="18" customFormat="1" ht="15.75">
+      <c r="AE11" s="21"/>
+    </row>
+    <row r="12" spans="1:33" s="18" customFormat="1" ht="15.75">
       <c r="D12" s="19"/>
       <c r="G12" s="47"/>
       <c r="H12" s="62"/>
@@ -2836,8 +2869,9 @@
       <c r="Y12" s="49"/>
       <c r="AA12" s="45"/>
       <c r="AC12" s="45"/>
-    </row>
-    <row r="13" spans="1:32" s="18" customFormat="1" ht="15.75">
+      <c r="AE12" s="21"/>
+    </row>
+    <row r="13" spans="1:33" s="18" customFormat="1" ht="15.75">
       <c r="D13" s="19"/>
       <c r="G13" s="47"/>
       <c r="H13" s="62"/>
@@ -2850,8 +2884,9 @@
       <c r="Y13" s="47"/>
       <c r="AA13" s="45"/>
       <c r="AC13" s="45"/>
-    </row>
-    <row r="14" spans="1:32" s="18" customFormat="1" ht="15.75">
+      <c r="AE13" s="21"/>
+    </row>
+    <row r="14" spans="1:33" s="18" customFormat="1" ht="15.75">
       <c r="D14" s="19"/>
       <c r="G14" s="47"/>
       <c r="H14" s="62"/>
@@ -2864,8 +2899,9 @@
       <c r="Y14" s="47"/>
       <c r="AA14" s="45"/>
       <c r="AC14" s="45"/>
-    </row>
-    <row r="15" spans="1:32" s="18" customFormat="1" ht="15.75">
+      <c r="AE14" s="21"/>
+    </row>
+    <row r="15" spans="1:33" s="18" customFormat="1" ht="15.75">
       <c r="D15" s="19"/>
       <c r="G15" s="47"/>
       <c r="H15" s="62"/>
@@ -2878,8 +2914,9 @@
       <c r="Y15" s="47"/>
       <c r="AA15" s="45"/>
       <c r="AC15" s="45"/>
-    </row>
-    <row r="16" spans="1:32" s="18" customFormat="1" ht="15.75">
+      <c r="AE15" s="21"/>
+    </row>
+    <row r="16" spans="1:33" s="18" customFormat="1" ht="15.75">
       <c r="D16" s="19"/>
       <c r="G16" s="47"/>
       <c r="H16" s="62"/>
@@ -2892,8 +2929,9 @@
       <c r="Y16" s="47"/>
       <c r="AA16" s="45"/>
       <c r="AC16" s="45"/>
-    </row>
-    <row r="17" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE16" s="21"/>
+    </row>
+    <row r="17" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D17" s="19"/>
       <c r="G17" s="47"/>
       <c r="H17" s="62"/>
@@ -2906,8 +2944,9 @@
       <c r="Y17" s="47"/>
       <c r="AA17" s="45"/>
       <c r="AC17" s="45"/>
-    </row>
-    <row r="18" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE17" s="21"/>
+    </row>
+    <row r="18" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D18" s="19"/>
       <c r="G18" s="47"/>
       <c r="H18" s="62"/>
@@ -2920,8 +2959,9 @@
       <c r="Y18" s="47"/>
       <c r="AA18" s="45"/>
       <c r="AC18" s="45"/>
-    </row>
-    <row r="19" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE18" s="21"/>
+    </row>
+    <row r="19" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D19" s="19"/>
       <c r="G19" s="47"/>
       <c r="H19" s="62"/>
@@ -2934,8 +2974,9 @@
       <c r="Y19" s="47"/>
       <c r="AA19" s="45"/>
       <c r="AC19" s="45"/>
-    </row>
-    <row r="20" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE19" s="21"/>
+    </row>
+    <row r="20" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D20" s="19"/>
       <c r="G20" s="47"/>
       <c r="H20" s="62"/>
@@ -2948,8 +2989,9 @@
       <c r="Y20" s="47"/>
       <c r="AA20" s="45"/>
       <c r="AC20" s="45"/>
-    </row>
-    <row r="21" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE20" s="21"/>
+    </row>
+    <row r="21" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D21" s="19"/>
       <c r="G21" s="47"/>
       <c r="H21" s="62"/>
@@ -2962,8 +3004,9 @@
       <c r="Y21" s="47"/>
       <c r="AA21" s="45"/>
       <c r="AC21" s="45"/>
-    </row>
-    <row r="22" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE21" s="21"/>
+    </row>
+    <row r="22" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D22" s="19"/>
       <c r="G22" s="47"/>
       <c r="H22" s="62"/>
@@ -2976,8 +3019,9 @@
       <c r="Y22" s="47"/>
       <c r="AA22" s="45"/>
       <c r="AC22" s="45"/>
-    </row>
-    <row r="23" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE22" s="21"/>
+    </row>
+    <row r="23" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D23" s="19"/>
       <c r="G23" s="47"/>
       <c r="H23" s="62"/>
@@ -2990,8 +3034,9 @@
       <c r="Y23" s="47"/>
       <c r="AA23" s="45"/>
       <c r="AC23" s="45"/>
-    </row>
-    <row r="24" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE23" s="21"/>
+    </row>
+    <row r="24" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D24" s="19"/>
       <c r="G24" s="47"/>
       <c r="H24" s="62"/>
@@ -3004,8 +3049,9 @@
       <c r="Y24" s="47"/>
       <c r="AA24" s="45"/>
       <c r="AC24" s="45"/>
-    </row>
-    <row r="25" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE24" s="21"/>
+    </row>
+    <row r="25" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D25" s="19"/>
       <c r="G25" s="47"/>
       <c r="H25" s="62"/>
@@ -3018,8 +3064,9 @@
       <c r="Y25" s="47"/>
       <c r="AA25" s="45"/>
       <c r="AC25" s="45"/>
-    </row>
-    <row r="26" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE25" s="21"/>
+    </row>
+    <row r="26" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D26" s="19"/>
       <c r="G26" s="47"/>
       <c r="H26" s="62"/>
@@ -3032,8 +3079,9 @@
       <c r="Y26" s="47"/>
       <c r="AA26" s="45"/>
       <c r="AC26" s="45"/>
-    </row>
-    <row r="27" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE26" s="21"/>
+    </row>
+    <row r="27" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D27" s="19"/>
       <c r="G27" s="47"/>
       <c r="H27" s="62"/>
@@ -3046,8 +3094,9 @@
       <c r="Y27" s="47"/>
       <c r="AA27" s="45"/>
       <c r="AC27" s="45"/>
-    </row>
-    <row r="28" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE27" s="21"/>
+    </row>
+    <row r="28" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D28" s="19"/>
       <c r="G28" s="47"/>
       <c r="H28" s="62"/>
@@ -3060,8 +3109,9 @@
       <c r="Y28" s="47"/>
       <c r="AA28" s="45"/>
       <c r="AC28" s="45"/>
-    </row>
-    <row r="29" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE28" s="21"/>
+    </row>
+    <row r="29" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D29" s="19"/>
       <c r="G29" s="47"/>
       <c r="H29" s="62"/>
@@ -3074,8 +3124,9 @@
       <c r="Y29" s="47"/>
       <c r="AA29" s="45"/>
       <c r="AC29" s="45"/>
-    </row>
-    <row r="30" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE29" s="21"/>
+    </row>
+    <row r="30" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D30" s="19"/>
       <c r="G30" s="47"/>
       <c r="H30" s="62"/>
@@ -3088,8 +3139,9 @@
       <c r="Y30" s="47"/>
       <c r="AA30" s="45"/>
       <c r="AC30" s="45"/>
-    </row>
-    <row r="31" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE30" s="21"/>
+    </row>
+    <row r="31" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D31" s="19"/>
       <c r="G31" s="47"/>
       <c r="H31" s="62"/>
@@ -3102,8 +3154,9 @@
       <c r="Y31" s="47"/>
       <c r="AA31" s="45"/>
       <c r="AC31" s="45"/>
-    </row>
-    <row r="32" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE31" s="21"/>
+    </row>
+    <row r="32" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D32" s="19"/>
       <c r="G32" s="47"/>
       <c r="H32" s="62"/>
@@ -3116,8 +3169,9 @@
       <c r="Y32" s="47"/>
       <c r="AA32" s="45"/>
       <c r="AC32" s="45"/>
-    </row>
-    <row r="33" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE32" s="21"/>
+    </row>
+    <row r="33" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D33" s="19"/>
       <c r="G33" s="47"/>
       <c r="H33" s="62"/>
@@ -3130,8 +3184,9 @@
       <c r="Y33" s="47"/>
       <c r="AA33" s="45"/>
       <c r="AC33" s="45"/>
-    </row>
-    <row r="34" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE33" s="21"/>
+    </row>
+    <row r="34" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D34" s="19"/>
       <c r="G34" s="47"/>
       <c r="H34" s="62"/>
@@ -3144,8 +3199,9 @@
       <c r="Y34" s="47"/>
       <c r="AA34" s="45"/>
       <c r="AC34" s="45"/>
-    </row>
-    <row r="35" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE34" s="21"/>
+    </row>
+    <row r="35" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D35" s="19"/>
       <c r="G35" s="47"/>
       <c r="H35" s="62"/>
@@ -3158,8 +3214,9 @@
       <c r="Y35" s="47"/>
       <c r="AA35" s="45"/>
       <c r="AC35" s="45"/>
-    </row>
-    <row r="36" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE35" s="21"/>
+    </row>
+    <row r="36" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D36" s="19"/>
       <c r="G36" s="47"/>
       <c r="H36" s="62"/>
@@ -3172,8 +3229,9 @@
       <c r="Y36" s="47"/>
       <c r="AA36" s="45"/>
       <c r="AC36" s="45"/>
-    </row>
-    <row r="37" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE36" s="21"/>
+    </row>
+    <row r="37" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D37" s="19"/>
       <c r="G37" s="47"/>
       <c r="H37" s="62"/>
@@ -3186,8 +3244,9 @@
       <c r="Y37" s="47"/>
       <c r="AA37" s="45"/>
       <c r="AC37" s="45"/>
-    </row>
-    <row r="38" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE37" s="21"/>
+    </row>
+    <row r="38" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D38" s="19"/>
       <c r="G38" s="47"/>
       <c r="H38" s="62"/>
@@ -3200,8 +3259,9 @@
       <c r="Y38" s="47"/>
       <c r="AA38" s="45"/>
       <c r="AC38" s="45"/>
-    </row>
-    <row r="39" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE38" s="21"/>
+    </row>
+    <row r="39" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D39" s="19"/>
       <c r="G39" s="47"/>
       <c r="H39" s="62"/>
@@ -3214,8 +3274,9 @@
       <c r="Y39" s="47"/>
       <c r="AA39" s="45"/>
       <c r="AC39" s="45"/>
-    </row>
-    <row r="40" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE39" s="21"/>
+    </row>
+    <row r="40" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D40" s="19"/>
       <c r="G40" s="47"/>
       <c r="H40" s="62"/>
@@ -3228,8 +3289,9 @@
       <c r="Y40" s="47"/>
       <c r="AA40" s="45"/>
       <c r="AC40" s="45"/>
-    </row>
-    <row r="41" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE40" s="21"/>
+    </row>
+    <row r="41" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D41" s="19"/>
       <c r="G41" s="47"/>
       <c r="H41" s="62"/>
@@ -3242,8 +3304,9 @@
       <c r="Y41" s="47"/>
       <c r="AA41" s="45"/>
       <c r="AC41" s="45"/>
-    </row>
-    <row r="42" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE41" s="21"/>
+    </row>
+    <row r="42" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D42" s="19"/>
       <c r="G42" s="47"/>
       <c r="H42" s="62"/>
@@ -3256,8 +3319,9 @@
       <c r="Y42" s="47"/>
       <c r="AA42" s="45"/>
       <c r="AC42" s="45"/>
-    </row>
-    <row r="43" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE42" s="21"/>
+    </row>
+    <row r="43" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D43" s="19"/>
       <c r="G43" s="47"/>
       <c r="H43" s="62"/>
@@ -3270,8 +3334,9 @@
       <c r="Y43" s="47"/>
       <c r="AA43" s="45"/>
       <c r="AC43" s="45"/>
-    </row>
-    <row r="44" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE43" s="21"/>
+    </row>
+    <row r="44" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D44" s="19"/>
       <c r="G44" s="47"/>
       <c r="H44" s="62"/>
@@ -3284,8 +3349,9 @@
       <c r="Y44" s="47"/>
       <c r="AA44" s="45"/>
       <c r="AC44" s="45"/>
-    </row>
-    <row r="45" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE44" s="21"/>
+    </row>
+    <row r="45" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D45" s="19"/>
       <c r="G45" s="47"/>
       <c r="H45" s="62"/>
@@ -3298,8 +3364,9 @@
       <c r="Y45" s="47"/>
       <c r="AA45" s="45"/>
       <c r="AC45" s="45"/>
-    </row>
-    <row r="46" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE45" s="21"/>
+    </row>
+    <row r="46" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D46" s="19"/>
       <c r="G46" s="47"/>
       <c r="H46" s="62"/>
@@ -3312,8 +3379,9 @@
       <c r="Y46" s="47"/>
       <c r="AA46" s="45"/>
       <c r="AC46" s="45"/>
-    </row>
-    <row r="47" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE46" s="21"/>
+    </row>
+    <row r="47" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D47" s="19"/>
       <c r="G47" s="47"/>
       <c r="H47" s="62"/>
@@ -3326,8 +3394,9 @@
       <c r="Y47" s="47"/>
       <c r="AA47" s="45"/>
       <c r="AC47" s="45"/>
-    </row>
-    <row r="48" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE47" s="21"/>
+    </row>
+    <row r="48" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D48" s="19"/>
       <c r="G48" s="47"/>
       <c r="H48" s="62"/>
@@ -3340,8 +3409,9 @@
       <c r="Y48" s="47"/>
       <c r="AA48" s="45"/>
       <c r="AC48" s="45"/>
-    </row>
-    <row r="49" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE48" s="21"/>
+    </row>
+    <row r="49" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D49" s="19"/>
       <c r="G49" s="47"/>
       <c r="H49" s="62"/>
@@ -3354,8 +3424,9 @@
       <c r="Y49" s="47"/>
       <c r="AA49" s="45"/>
       <c r="AC49" s="45"/>
-    </row>
-    <row r="50" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE49" s="21"/>
+    </row>
+    <row r="50" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D50" s="19"/>
       <c r="G50" s="47"/>
       <c r="H50" s="62"/>
@@ -3368,8 +3439,9 @@
       <c r="Y50" s="47"/>
       <c r="AA50" s="45"/>
       <c r="AC50" s="45"/>
-    </row>
-    <row r="51" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE50" s="21"/>
+    </row>
+    <row r="51" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D51" s="19"/>
       <c r="G51" s="47"/>
       <c r="H51" s="62"/>
@@ -3382,8 +3454,9 @@
       <c r="Y51" s="47"/>
       <c r="AA51" s="45"/>
       <c r="AC51" s="45"/>
-    </row>
-    <row r="52" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE51" s="21"/>
+    </row>
+    <row r="52" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D52" s="19"/>
       <c r="G52" s="47"/>
       <c r="H52" s="62"/>
@@ -3396,8 +3469,9 @@
       <c r="Y52" s="47"/>
       <c r="AA52" s="45"/>
       <c r="AC52" s="45"/>
-    </row>
-    <row r="53" spans="4:29" s="18" customFormat="1" ht="15.75">
+      <c r="AE52" s="21"/>
+    </row>
+    <row r="53" spans="4:31" s="18" customFormat="1" ht="15.75">
       <c r="D53" s="19"/>
       <c r="G53" s="47"/>
       <c r="H53" s="62"/>
@@ -3410,8 +3484,9 @@
       <c r="Y53" s="47"/>
       <c r="AA53" s="45"/>
       <c r="AC53" s="45"/>
-    </row>
-    <row r="54" spans="4:29">
+      <c r="AE53" s="21"/>
+    </row>
+    <row r="54" spans="4:31">
       <c r="G54" s="48"/>
       <c r="H54" s="62"/>
       <c r="J54" s="31"/>
@@ -3420,7 +3495,7 @@
       <c r="AA54" s="46"/>
       <c r="AC54" s="46"/>
     </row>
-    <row r="55" spans="4:29">
+    <row r="55" spans="4:31">
       <c r="G55" s="48"/>
       <c r="H55" s="62"/>
       <c r="J55" s="31"/>
@@ -3429,7 +3504,7 @@
       <c r="AA55" s="46"/>
       <c r="AC55" s="46"/>
     </row>
-    <row r="56" spans="4:29">
+    <row r="56" spans="4:31">
       <c r="G56" s="48"/>
       <c r="H56" s="62"/>
       <c r="J56" s="31"/>
@@ -3438,7 +3513,7 @@
       <c r="AA56" s="46"/>
       <c r="AC56" s="46"/>
     </row>
-    <row r="57" spans="4:29">
+    <row r="57" spans="4:31">
       <c r="G57" s="48"/>
       <c r="H57" s="62"/>
       <c r="J57" s="31"/>
@@ -3447,7 +3522,7 @@
       <c r="AA57" s="46"/>
       <c r="AC57" s="46"/>
     </row>
-    <row r="58" spans="4:29">
+    <row r="58" spans="4:31">
       <c r="G58" s="48"/>
       <c r="H58" s="62"/>
       <c r="J58" s="31"/>
@@ -3456,7 +3531,7 @@
       <c r="AA58" s="46"/>
       <c r="AC58" s="46"/>
     </row>
-    <row r="59" spans="4:29">
+    <row r="59" spans="4:31">
       <c r="G59" s="48"/>
       <c r="H59" s="62"/>
       <c r="J59" s="31"/>
@@ -3465,7 +3540,7 @@
       <c r="AA59" s="46"/>
       <c r="AC59" s="46"/>
     </row>
-    <row r="60" spans="4:29">
+    <row r="60" spans="4:31">
       <c r="G60" s="48"/>
       <c r="H60" s="62"/>
       <c r="J60" s="31"/>
@@ -3474,7 +3549,7 @@
       <c r="AA60" s="46"/>
       <c r="AC60" s="46"/>
     </row>
-    <row r="61" spans="4:29">
+    <row r="61" spans="4:31">
       <c r="G61" s="48"/>
       <c r="H61" s="62"/>
       <c r="J61" s="31"/>
@@ -3483,7 +3558,7 @@
       <c r="AA61" s="46"/>
       <c r="AC61" s="46"/>
     </row>
-    <row r="62" spans="4:29">
+    <row r="62" spans="4:31">
       <c r="G62" s="48"/>
       <c r="H62" s="62"/>
       <c r="J62" s="31"/>
@@ -3492,7 +3567,7 @@
       <c r="AA62" s="46"/>
       <c r="AC62" s="46"/>
     </row>
-    <row r="63" spans="4:29">
+    <row r="63" spans="4:31">
       <c r="G63" s="48"/>
       <c r="H63" s="62"/>
       <c r="J63" s="31"/>
@@ -3501,7 +3576,7 @@
       <c r="AA63" s="46"/>
       <c r="AC63" s="46"/>
     </row>
-    <row r="64" spans="4:29">
+    <row r="64" spans="4:31">
       <c r="G64" s="48"/>
       <c r="H64" s="62"/>
       <c r="J64" s="31"/>
@@ -4489,7 +4564,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:R1"/>
     <mergeCell ref="T1:Z1"/>
